--- a/wordlists_audio.xlsx
+++ b/wordlists_audio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqjwoo24\Psychopy_projects\sleep_tacs_study_jw_gh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\psychopy_projects\sleep_tacs_study_jw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033EA76-4EB9-44DE-BC71-1F96314EACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F6F942-7765-41F2-9624-16460BDCF347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70BBF419-D508-4F85-A936-17A16F6BFCD9}"/>
+    <workbookView xWindow="1725" yWindow="210" windowWidth="22485" windowHeight="14760" xr2:uid="{70BBF419-D508-4F85-A936-17A16F6BFCD9}"/>
   </bookViews>
   <sheets>
     <sheet name="wordlist_1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>BIRD</t>
   </si>
@@ -101,24 +101,12 @@
     <t>BELIEF</t>
   </si>
   <si>
-    <t>RESTRAINT</t>
-  </si>
-  <si>
-    <t>WINTER</t>
-  </si>
-  <si>
     <t>ACCIDENT</t>
   </si>
   <si>
     <t>INSECT</t>
   </si>
   <si>
-    <t>WORM</t>
-  </si>
-  <si>
-    <t>WATERSIDE</t>
-  </si>
-  <si>
     <t>DAM</t>
   </si>
   <si>
@@ -230,15 +218,9 @@
     <t>MUSIC</t>
   </si>
   <si>
-    <t>FARMER</t>
-  </si>
-  <si>
     <t>PLANT</t>
   </si>
   <si>
-    <t>MAIL</t>
-  </si>
-  <si>
     <t>TRAVEL</t>
   </si>
   <si>
@@ -290,6 +272,9 @@
     <t>ROOM</t>
   </si>
   <si>
+    <t>POSTER</t>
+  </si>
+  <si>
     <t>COMB</t>
   </si>
   <si>
@@ -317,6 +302,9 @@
     <t>CAP</t>
   </si>
   <si>
+    <t>EXERCISE</t>
+  </si>
+  <si>
     <t>DOCK</t>
   </si>
   <si>
@@ -398,6 +386,9 @@
     <t>CURRENT</t>
   </si>
   <si>
+    <t>KIOSK</t>
+  </si>
+  <si>
     <t>WORK</t>
   </si>
   <si>
@@ -407,6 +398,9 @@
     <t>WITNESS</t>
   </si>
   <si>
+    <t>HEDGE</t>
+  </si>
+  <si>
     <t>DECENCY</t>
   </si>
   <si>
@@ -431,6 +425,9 @@
     <t>OUTCOME</t>
   </si>
   <si>
+    <t>DYNAMO</t>
+  </si>
+  <si>
     <t>FIRE</t>
   </si>
   <si>
@@ -443,6 +440,9 @@
     <t>BUILDING</t>
   </si>
   <si>
+    <t>MOUNTAIN</t>
+  </si>
+  <si>
     <t>JAIL</t>
   </si>
   <si>
@@ -548,6 +548,9 @@
     <t>HORSESHOE</t>
   </si>
   <si>
+    <t>ROOK</t>
+  </si>
+  <si>
     <t>GAUGE</t>
   </si>
   <si>
@@ -608,18 +611,12 @@
     <t>SHED</t>
   </si>
   <si>
-    <t>FAITHFUL</t>
-  </si>
-  <si>
     <t>PEANUTS</t>
   </si>
   <si>
     <t>STOVE</t>
   </si>
   <si>
-    <t>GENERATOR</t>
-  </si>
-  <si>
     <t>ACHIEVEMENT</t>
   </si>
   <si>
@@ -659,12 +656,6 @@
     <t>COMMAND</t>
   </si>
   <si>
-    <t>FLAKES</t>
-  </si>
-  <si>
-    <t>RESCUE</t>
-  </si>
-  <si>
     <t>MUSEUM</t>
   </si>
   <si>
@@ -686,46 +677,64 @@
     <t>WHEEL</t>
   </si>
   <si>
-    <t>TEXTBOOK</t>
-  </si>
-  <si>
-    <t>CHAPTER</t>
+    <t>AEROPLANE</t>
+  </si>
+  <si>
+    <t>OFFENCE</t>
   </si>
   <si>
     <t>WATERCOLOURS</t>
   </si>
   <si>
-    <t>PILLAR</t>
-  </si>
-  <si>
-    <t>THICKET</t>
+    <t>TENANT</t>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
   <si>
     <t>UNDERWORLD</t>
   </si>
   <si>
-    <t>LUMBER</t>
-  </si>
-  <si>
-    <t>TRAIN STATION</t>
-  </si>
-  <si>
-    <t>AIRPLANE</t>
+    <t>BIKE</t>
+  </si>
+  <si>
+    <t>RAILWAY</t>
   </si>
   <si>
     <t>PAPER</t>
   </si>
   <si>
-    <t>TOWER</t>
-  </si>
-  <si>
-    <t>OFFENSE</t>
-  </si>
-  <si>
-    <t>MOUNTAINS</t>
-  </si>
-  <si>
-    <t>RAILROAD</t>
+    <t>LOYALTY</t>
+  </si>
+  <si>
+    <t>MANAGEMENT</t>
+  </si>
+  <si>
+    <t>KEYBOARD</t>
+  </si>
+  <si>
+    <t>MONITOR</t>
+  </si>
+  <si>
+    <t>SACRIFICE</t>
+  </si>
+  <si>
+    <t>RIVERBANK</t>
+  </si>
+  <si>
+    <t>CATERPILLAR</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>RECOVERY</t>
+  </si>
+  <si>
+    <t>WEATHER</t>
+  </si>
+  <si>
+    <t>KNEE</t>
   </si>
 </sst>
 </file>
@@ -761,13 +770,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,380 +1089,382 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39104FB-ED4B-4312-82CD-D1551AB18A37}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>218</v>
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>119</v>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1474,375 +1481,375 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B40" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B42" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B44" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B45" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>228</v>
-      </c>
-      <c r="B36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45" t="s">
-        <v>202</v>
-      </c>
-    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1869,15 +1876,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,15 +1900,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1932,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1936,95 +1943,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE0EE2B-60E6-4843-A454-5683C3DB7974}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2040,72 +2032,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" t="s">
-        <v>209</v>
+      <c r="B7" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>211</v>
+      <c r="A8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
